--- a/code/covariates/model_4E.xlsx
+++ b/code/covariates/model_4E.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t xml:space="preserve">Subject</t>
   </si>
@@ -57,6 +57,12 @@
   <si>
     <t xml:space="preserve">Vbeta*RS^2</t>
   </si>
+  <si>
+    <t xml:space="preserve">Salience (cluster 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salience (cluster 2)</t>
+  </si>
 </sst>
 </file>
 
@@ -70,6 +76,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -171,12 +178,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -188,15 +199,19 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -208,8 +223,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -229,88 +244,98 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L49"/>
+  <dimension ref="A1:N49"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="topLeft" activeCell="O5" activeCellId="0" sqref="O5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="11.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="14.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="21.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="14.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="28.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="28.98"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="11.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="13.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="17.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="14.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="16.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="16.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="2" width="18.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="2" width="20.98"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="7" t="s">
         <v>11</v>
       </c>
+      <c r="M1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="n">
+      <c r="A2" s="9" t="n">
         <v>1001</v>
       </c>
-      <c r="B2" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" s="7" t="n">
+      <c r="B2" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="9" t="n">
         <v>-0.42737463492449</v>
       </c>
-      <c r="D2" s="7" t="n">
+      <c r="D2" s="9" t="n">
         <v>0.0485712026734694</v>
       </c>
-      <c r="E2" s="7" t="n">
+      <c r="E2" s="9" t="n">
         <v>0.469387755102041</v>
       </c>
       <c r="F2" s="1" t="n">
         <v>-8.02873802582258</v>
       </c>
-      <c r="G2" s="8" t="n">
+      <c r="G2" s="10" t="n">
         <v>0.491867511693115</v>
       </c>
-      <c r="H2" s="9" t="n">
+      <c r="H2" s="11" t="n">
         <v>-0.329041970752585</v>
       </c>
-      <c r="I2" s="0" t="n">
+      <c r="I2" s="2" t="n">
         <v>-0.63044679954115</v>
       </c>
       <c r="J2" s="1" t="n">
@@ -322,33 +347,39 @@
       <c r="L2" s="1" t="n">
         <v>0.0177919522335787</v>
       </c>
+      <c r="M2" s="2" t="n">
+        <v>37.88944571</v>
+      </c>
+      <c r="N2" s="2" t="n">
+        <v>-60.0004018</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="n">
+      <c r="A3" s="9" t="n">
         <v>1003</v>
       </c>
-      <c r="B3" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" s="7" t="n">
+      <c r="B3" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9" t="n">
         <v>-0.16236682272449</v>
       </c>
-      <c r="D3" s="7" t="n">
+      <c r="D3" s="9" t="n">
         <v>0.124435317573469</v>
       </c>
-      <c r="E3" s="7" t="n">
+      <c r="E3" s="9" t="n">
         <v>0.469387755102041</v>
       </c>
       <c r="F3" s="1" t="n">
         <v>-8.02873802582258</v>
       </c>
-      <c r="G3" s="8" t="n">
+      <c r="G3" s="10" t="n">
         <v>0.00638414210808214</v>
       </c>
-      <c r="H3" s="9" t="n">
+      <c r="H3" s="11" t="n">
         <v>-0.556921919741478</v>
       </c>
-      <c r="I3" s="0" t="n">
+      <c r="I3" s="2" t="n">
         <v>3.26737199075068</v>
       </c>
       <c r="J3" s="1" t="n">
@@ -360,33 +391,39 @@
       <c r="L3" s="1" t="n">
         <v>-0.0457972077055609</v>
       </c>
+      <c r="M3" s="2" t="n">
+        <v>82.82729962</v>
+      </c>
+      <c r="N3" s="2" t="n">
+        <v>114.30046</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="n">
+      <c r="A4" s="9" t="n">
         <v>1004</v>
       </c>
-      <c r="B4" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" s="7" t="n">
+      <c r="B4" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="9" t="n">
         <v>-0.12438363542449</v>
       </c>
-      <c r="D4" s="7" t="n">
+      <c r="D4" s="9" t="n">
         <v>-0.456402109126531</v>
       </c>
-      <c r="E4" s="7" t="n">
+      <c r="E4" s="9" t="n">
         <v>2.46938775510204</v>
       </c>
       <c r="F4" s="1" t="n">
         <v>-2.15118700541441</v>
       </c>
-      <c r="G4" s="8" t="n">
+      <c r="G4" s="10" t="n">
         <v>-0.28490587958468</v>
       </c>
-      <c r="H4" s="9" t="n">
+      <c r="H4" s="11" t="n">
         <v>-1.26346164827683</v>
       </c>
-      <c r="I4" s="0" t="n">
+      <c r="I4" s="2" t="n">
         <v>3.93151442118482</v>
       </c>
       <c r="J4" s="1" t="n">
@@ -398,33 +435,39 @@
       <c r="L4" s="1" t="n">
         <v>-0.0161604164057053</v>
       </c>
+      <c r="M4" s="2" t="n">
+        <v>-103.0110141</v>
+      </c>
+      <c r="N4" s="2" t="n">
+        <v>-122.5251258</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="n">
+      <c r="A5" s="9" t="n">
         <v>1006</v>
       </c>
-      <c r="B5" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" s="7" t="n">
+      <c r="B5" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="9" t="n">
         <v>1.31249918507551</v>
       </c>
-      <c r="D5" s="7" t="n">
+      <c r="D5" s="9" t="n">
         <v>-0.852310549426531</v>
       </c>
-      <c r="E5" s="7" t="n">
+      <c r="E5" s="9" t="n">
         <v>-0.530612244897959</v>
       </c>
       <c r="F5" s="1" t="n">
         <v>-7.96751353602666</v>
       </c>
-      <c r="G5" s="8" t="n">
+      <c r="G5" s="10" t="n">
         <v>-1.15877594466297</v>
       </c>
-      <c r="H5" s="9" t="n">
+      <c r="H5" s="11" t="n">
         <v>0.0549421474575288</v>
       </c>
-      <c r="I5" s="0" t="n">
+      <c r="I5" s="2" t="n">
         <v>12.5511916195804</v>
       </c>
       <c r="J5" s="1" t="n">
@@ -436,33 +479,39 @@
       <c r="L5" s="1" t="n">
         <v>-0.00824633519846404</v>
       </c>
+      <c r="M5" s="2" t="n">
+        <v>16.11262896</v>
+      </c>
+      <c r="N5" s="2" t="n">
+        <v>38.92551034</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="n">
+      <c r="A6" s="9" t="n">
         <v>1009</v>
       </c>
-      <c r="B6" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" s="7" t="n">
+      <c r="B6" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="9" t="n">
         <v>1.19081208997551</v>
       </c>
-      <c r="D6" s="7" t="n">
+      <c r="D6" s="9" t="n">
         <v>0.0549717451734694</v>
       </c>
-      <c r="E6" s="7" t="n">
+      <c r="E6" s="9" t="n">
         <v>1.46938775510204</v>
       </c>
       <c r="F6" s="1" t="n">
         <v>-6.0899625156185</v>
       </c>
-      <c r="G6" s="8" t="n">
+      <c r="G6" s="10" t="n">
         <v>-1.15877594466297</v>
       </c>
-      <c r="H6" s="9" t="n">
+      <c r="H6" s="11" t="n">
         <v>-2.26260974186841</v>
       </c>
-      <c r="I6" s="0" t="n">
+      <c r="I6" s="2" t="n">
         <v>10.375530662254</v>
       </c>
       <c r="J6" s="1" t="n">
@@ -474,33 +523,39 @@
       <c r="L6" s="1" t="n">
         <v>-0.0308620255658509</v>
       </c>
+      <c r="M6" s="2" t="n">
+        <v>-102.2519083</v>
+      </c>
+      <c r="N6" s="2" t="n">
+        <v>-26.62313915</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="n">
+      <c r="A7" s="9" t="n">
         <v>1010</v>
       </c>
-      <c r="B7" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" s="7" t="n">
+      <c r="B7" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="9" t="n">
         <v>-0.52787693882449</v>
       </c>
-      <c r="D7" s="7" t="n">
+      <c r="D7" s="9" t="n">
         <v>0.0743054953734694</v>
       </c>
-      <c r="E7" s="7" t="n">
+      <c r="E7" s="9" t="n">
         <v>-1.53061224489796</v>
       </c>
       <c r="F7" s="1" t="n">
         <v>-5.90628904623074</v>
       </c>
-      <c r="G7" s="8" t="n">
+      <c r="G7" s="10" t="n">
         <v>3.2660748372877</v>
       </c>
-      <c r="H7" s="9" t="n">
+      <c r="H7" s="11" t="n">
         <v>-5.55901269657951</v>
       </c>
-      <c r="I7" s="0" t="n">
+      <c r="I7" s="2" t="n">
         <v>-15.9717534403861</v>
       </c>
       <c r="J7" s="1" t="n">
@@ -512,33 +567,39 @@
       <c r="L7" s="1" t="n">
         <v>-0.0147580472870474</v>
       </c>
+      <c r="M7" s="2" t="n">
+        <v>57.13601391</v>
+      </c>
+      <c r="N7" s="2" t="n">
+        <v>26.56373482</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="n">
+      <c r="A8" s="9" t="n">
         <v>1011</v>
       </c>
-      <c r="B8" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" s="7" t="n">
+      <c r="B8" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="9" t="n">
         <v>-0.0969085700244898</v>
       </c>
-      <c r="D8" s="7" t="n">
+      <c r="D8" s="9" t="n">
         <v>0.514405812773469</v>
       </c>
-      <c r="E8" s="7" t="n">
+      <c r="E8" s="9" t="n">
         <v>2.46938775510204</v>
       </c>
       <c r="F8" s="1" t="n">
         <v>-2.15118700541441</v>
       </c>
-      <c r="G8" s="8" t="n">
+      <c r="G8" s="10" t="n">
         <v>-1.45006596635573</v>
       </c>
-      <c r="H8" s="9" t="n">
+      <c r="H8" s="11" t="n">
         <v>-4.14069369928289</v>
       </c>
-      <c r="I8" s="0" t="n">
+      <c r="I8" s="2" t="n">
         <v>6.43799165907423</v>
       </c>
       <c r="J8" s="1" t="n">
@@ -550,33 +611,39 @@
       <c r="L8" s="1" t="n">
         <v>-0.00591052130515551</v>
       </c>
+      <c r="M8" s="2" t="n">
+        <v>-178.989276</v>
+      </c>
+      <c r="N8" s="2" t="n">
+        <v>-184.9820921</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="n">
+      <c r="A9" s="9" t="n">
         <v>1012</v>
       </c>
-      <c r="B9" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" s="7" t="n">
+      <c r="B9" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="9" t="n">
         <v>1.90331356567551</v>
       </c>
-      <c r="D9" s="7" t="n">
+      <c r="D9" s="9" t="n">
         <v>-1.04765708252653</v>
       </c>
-      <c r="E9" s="7" t="n">
+      <c r="E9" s="9" t="n">
         <v>-4.53061224489796</v>
       </c>
       <c r="F9" s="1" t="n">
         <v>12.277384423157</v>
       </c>
-      <c r="G9" s="8" t="n">
+      <c r="G9" s="10" t="n">
         <v>-1.45006596635573</v>
       </c>
-      <c r="H9" s="9" t="n">
+      <c r="H9" s="11" t="n">
         <v>6.00976806520722</v>
       </c>
-      <c r="I9" s="0" t="n">
+      <c r="I9" s="2" t="n">
         <v>-14.4843887126298</v>
       </c>
       <c r="J9" s="1" t="n">
@@ -588,33 +655,39 @@
       <c r="L9" s="1" t="n">
         <v>-0.0236753470282883</v>
       </c>
+      <c r="M9" s="2" t="n">
+        <v>44.93102412</v>
+      </c>
+      <c r="N9" s="2" t="n">
+        <v>93.35978568</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="n">
+      <c r="A10" s="9" t="n">
         <v>1013</v>
       </c>
-      <c r="B10" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" s="7" t="n">
+      <c r="B10" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" s="9" t="n">
         <v>1.65980322807551</v>
       </c>
-      <c r="D10" s="7" t="n">
+      <c r="D10" s="9" t="n">
         <v>-1.29871256632653</v>
       </c>
-      <c r="E10" s="7" t="n">
+      <c r="E10" s="9" t="n">
         <v>4.46938775510204</v>
       </c>
       <c r="F10" s="1" t="n">
         <v>11.7263640149938</v>
       </c>
-      <c r="G10" s="8" t="n">
+      <c r="G10" s="10" t="n">
         <v>-0.80275480710321</v>
       </c>
-      <c r="H10" s="9" t="n">
+      <c r="H10" s="11" t="n">
         <v>-4.14774106309023</v>
       </c>
-      <c r="I10" s="0" t="n">
+      <c r="I10" s="2" t="n">
         <v>-6.09476648762227</v>
       </c>
       <c r="J10" s="1" t="n">
@@ -626,33 +699,39 @@
       <c r="L10" s="1" t="n">
         <v>-0.0121856413960083</v>
       </c>
+      <c r="M10" s="2" t="n">
+        <v>39.55519405</v>
+      </c>
+      <c r="N10" s="2" t="n">
+        <v>128.9958122</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7" t="n">
+      <c r="A11" s="9" t="n">
         <v>1015</v>
       </c>
-      <c r="B11" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" s="7" t="n">
+      <c r="B11" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="9" t="n">
         <v>0.76025834777551</v>
       </c>
-      <c r="D11" s="7" t="n">
+      <c r="D11" s="9" t="n">
         <v>0.233755386673469</v>
       </c>
-      <c r="E11" s="7" t="n">
+      <c r="E11" s="9" t="n">
         <v>-3.53061224489796</v>
       </c>
       <c r="F11" s="1" t="n">
         <v>4.21615993336109</v>
       </c>
-      <c r="G11" s="8" t="n">
+      <c r="G11" s="10" t="n">
         <v>2.33670431565018</v>
       </c>
-      <c r="H11" s="9" t="n">
+      <c r="H11" s="11" t="n">
         <v>-8.80991542741428</v>
       </c>
-      <c r="I11" s="0" t="n">
+      <c r="I11" s="2" t="n">
         <v>13.1705477070123</v>
       </c>
       <c r="J11" s="1" t="n">
@@ -664,33 +743,39 @@
       <c r="L11" s="1" t="n">
         <v>-0.0226701688194833</v>
       </c>
+      <c r="M11" s="2" t="n">
+        <v>218.4064801</v>
+      </c>
+      <c r="N11" s="2" t="n">
+        <v>97.18044836</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7" t="n">
+      <c r="A12" s="9" t="n">
         <v>1016</v>
       </c>
-      <c r="B12" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" s="7" t="n">
+      <c r="B12" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" s="9" t="n">
         <v>1.30122162707551</v>
       </c>
-      <c r="D12" s="7" t="n">
+      <c r="D12" s="9" t="n">
         <v>-0.737729982126531</v>
       </c>
-      <c r="E12" s="7" t="n">
+      <c r="E12" s="9" t="n">
         <v>3.46938775510204</v>
       </c>
       <c r="F12" s="1" t="n">
         <v>3.78758850478969</v>
       </c>
-      <c r="G12" s="8" t="n">
+      <c r="G12" s="10" t="n">
         <v>-1.15877594466297</v>
       </c>
-      <c r="H12" s="9" t="n">
+      <c r="H12" s="11" t="n">
         <v>-4.58016163119435</v>
       </c>
-      <c r="I12" s="0" t="n">
+      <c r="I12" s="2" t="n">
         <v>-1.07033785237618</v>
       </c>
       <c r="J12" s="1" t="n">
@@ -702,33 +787,39 @@
       <c r="L12" s="1" t="n">
         <v>0.00106421438718116</v>
       </c>
+      <c r="M12" s="2" t="n">
+        <v>41.49789639</v>
+      </c>
+      <c r="N12" s="2" t="n">
+        <v>26.10230224</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7" t="n">
+      <c r="A13" s="9" t="n">
         <v>1019</v>
       </c>
-      <c r="B13" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" s="7" t="n">
+      <c r="B13" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" s="9" t="n">
         <v>-0.16946823332449</v>
       </c>
-      <c r="D13" s="7" t="n">
+      <c r="D13" s="9" t="n">
         <v>-0.0853713748265306</v>
       </c>
-      <c r="E13" s="7" t="n">
+      <c r="E13" s="9" t="n">
         <v>3.46938775510204</v>
       </c>
       <c r="F13" s="1" t="n">
         <v>3.78758850478969</v>
       </c>
-      <c r="G13" s="8" t="n">
+      <c r="G13" s="10" t="n">
         <v>0.00638414210808214</v>
       </c>
-      <c r="H13" s="9" t="n">
+      <c r="H13" s="11" t="n">
         <v>-0.537769493417231</v>
       </c>
-      <c r="I13" s="0" t="n">
+      <c r="I13" s="2" t="n">
         <v>3.34280909851761</v>
       </c>
       <c r="J13" s="1" t="n">
@@ -740,33 +831,39 @@
       <c r="L13" s="1" t="n">
         <v>-0.0225884290953213</v>
       </c>
+      <c r="M13" s="2" t="n">
+        <v>-19.99881025</v>
+      </c>
+      <c r="N13" s="2" t="n">
+        <v>-11.60593675</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="7" t="n">
+      <c r="A14" s="9" t="n">
         <v>1021</v>
       </c>
-      <c r="B14" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" s="7" t="n">
+      <c r="B14" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" s="9" t="n">
         <v>0.13400203807551</v>
       </c>
-      <c r="D14" s="7" t="n">
+      <c r="D14" s="9" t="n">
         <v>-0.184157528226531</v>
       </c>
-      <c r="E14" s="7" t="n">
+      <c r="E14" s="9" t="n">
         <v>-1.53061224489796</v>
       </c>
       <c r="F14" s="1" t="n">
         <v>-5.90628904623074</v>
       </c>
-      <c r="G14" s="8" t="n">
+      <c r="G14" s="10" t="n">
         <v>-0.576195901277442</v>
       </c>
-      <c r="H14" s="9" t="n">
+      <c r="H14" s="11" t="n">
         <v>0.322013944081426</v>
       </c>
-      <c r="I14" s="0" t="n">
+      <c r="I14" s="2" t="n">
         <v>6.7218081354541</v>
       </c>
       <c r="J14" s="1" t="n">
@@ -778,33 +875,39 @@
       <c r="L14" s="1" t="n">
         <v>-0.0422405563221571</v>
       </c>
+      <c r="M14" s="2" t="n">
+        <v>15.21491454</v>
+      </c>
+      <c r="N14" s="2" t="n">
+        <v>-45.68071703</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7" t="n">
+      <c r="A15" s="9" t="n">
         <v>1242</v>
       </c>
-      <c r="B15" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" s="7" t="n">
+      <c r="B15" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="9" t="n">
         <v>-0.14843950982449</v>
       </c>
-      <c r="D15" s="7" t="n">
+      <c r="D15" s="9" t="n">
         <v>-1.01954352272653</v>
       </c>
-      <c r="E15" s="7" t="n">
+      <c r="E15" s="9" t="n">
         <v>2.46938775510204</v>
       </c>
       <c r="F15" s="1" t="n">
         <v>-2.15118700541441</v>
       </c>
-      <c r="G15" s="8" t="n">
+      <c r="G15" s="10" t="n">
         <v>1.46283425057189</v>
       </c>
-      <c r="H15" s="9" t="n">
+      <c r="H15" s="11" t="n">
         <v>3.05238642823225</v>
       </c>
-      <c r="I15" s="0" t="n">
+      <c r="I15" s="2" t="n">
         <v>0.171798564350717</v>
       </c>
       <c r="J15" s="1" t="n">
@@ -816,33 +919,39 @@
       <c r="L15" s="1" t="n">
         <v>-0.0178615904481372</v>
       </c>
+      <c r="M15" s="2" t="n">
+        <v>-90.33558219</v>
+      </c>
+      <c r="N15" s="2" t="n">
+        <v>-113.7535853</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="7" t="n">
+      <c r="A16" s="9" t="n">
         <v>1243</v>
       </c>
-      <c r="B16" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" s="7" t="n">
+      <c r="B16" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" s="9" t="n">
         <v>-0.18990325012449</v>
       </c>
-      <c r="D16" s="7" t="n">
+      <c r="D16" s="9" t="n">
         <v>2.94035266937347</v>
       </c>
-      <c r="E16" s="7" t="n">
+      <c r="E16" s="9" t="n">
         <v>-2.53061224489796</v>
       </c>
       <c r="F16" s="1" t="n">
         <v>-1.84506455643482</v>
       </c>
-      <c r="G16" s="8" t="n">
+      <c r="G16" s="10" t="n">
         <v>-0.576195901277442</v>
       </c>
-      <c r="H16" s="9" t="n">
+      <c r="H16" s="11" t="n">
         <v>0.898209845358868</v>
       </c>
-      <c r="I16" s="0" t="n">
+      <c r="I16" s="2" t="n">
         <v>4.38174723026612</v>
       </c>
       <c r="J16" s="1" t="n">
@@ -854,33 +963,39 @@
       <c r="L16" s="1" t="n">
         <v>-0.0151706504881931</v>
       </c>
+      <c r="M16" s="2" t="n">
+        <v>-11.63319106</v>
+      </c>
+      <c r="N16" s="2" t="n">
+        <v>22.36418176</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="7" t="n">
+      <c r="A17" s="9" t="n">
         <v>1244</v>
       </c>
-      <c r="B17" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" s="7" t="n">
+      <c r="B17" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" s="9" t="n">
         <v>0.0452098673755102</v>
       </c>
-      <c r="D17" s="7" t="n">
+      <c r="D17" s="9" t="n">
         <v>1.04787654227347</v>
       </c>
-      <c r="E17" s="7" t="n">
+      <c r="E17" s="9" t="n">
         <v>4.46938775510204</v>
       </c>
       <c r="F17" s="1" t="n">
         <v>11.7263640149938</v>
       </c>
-      <c r="G17" s="8" t="n">
+      <c r="G17" s="10" t="n">
         <v>1.38656481042455</v>
       </c>
-      <c r="H17" s="9" t="n">
+      <c r="H17" s="11" t="n">
         <v>5.63717722749302</v>
       </c>
-      <c r="I17" s="0" t="n">
+      <c r="I17" s="2" t="n">
         <v>19.5779922926752</v>
       </c>
       <c r="J17" s="1" t="n">
@@ -892,33 +1007,39 @@
       <c r="L17" s="1" t="n">
         <v>0.0627762592409275</v>
       </c>
+      <c r="M17" s="2" t="n">
+        <v>6.718636348</v>
+      </c>
+      <c r="N17" s="2" t="n">
+        <v>-28.05447013</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7" t="n">
+      <c r="A18" s="9" t="n">
         <v>1245</v>
       </c>
-      <c r="B18" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C18" s="7" t="n">
+      <c r="B18" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" s="9" t="n">
         <v>0.10512162497551</v>
       </c>
-      <c r="D18" s="7" t="n">
+      <c r="D18" s="9" t="n">
         <v>-0.735970197626531</v>
       </c>
-      <c r="E18" s="7" t="n">
+      <c r="E18" s="9" t="n">
         <v>-3.53061224489796</v>
       </c>
       <c r="F18" s="1" t="n">
         <v>4.21615993336109</v>
       </c>
-      <c r="G18" s="8" t="n">
+      <c r="G18" s="10" t="n">
         <v>0.0341343703876991</v>
       </c>
-      <c r="H18" s="9" t="n">
+      <c r="H18" s="11" t="n">
         <v>-0.680433783936536</v>
       </c>
-      <c r="I18" s="0" t="n">
+      <c r="I18" s="2" t="n">
         <v>3.46254456003522</v>
       </c>
       <c r="J18" s="1" t="n">
@@ -930,33 +1051,39 @@
       <c r="L18" s="1" t="n">
         <v>-0.00979255035404124</v>
       </c>
+      <c r="M18" s="2" t="n">
+        <v>32.31091309</v>
+      </c>
+      <c r="N18" s="2" t="n">
+        <v>-8.919130714</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="7" t="n">
+      <c r="A19" s="9" t="n">
         <v>1247</v>
       </c>
-      <c r="B19" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C19" s="7" t="n">
+      <c r="B19" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" s="9" t="n">
         <v>-1.11557372412449</v>
       </c>
-      <c r="D19" s="7" t="n">
+      <c r="D19" s="9" t="n">
         <v>1.11055757467347</v>
       </c>
-      <c r="E19" s="7" t="n">
+      <c r="E19" s="9" t="n">
         <v>3.46938775510204</v>
       </c>
       <c r="F19" s="1" t="n">
         <v>3.78758850478969</v>
       </c>
-      <c r="G19" s="8" t="n">
+      <c r="G19" s="10" t="n">
         <v>-0.576195901277442</v>
       </c>
-      <c r="H19" s="9" t="n">
+      <c r="H19" s="11" t="n">
         <v>-2.55896556230578</v>
       </c>
-      <c r="I19" s="0" t="n">
+      <c r="I19" s="2" t="n">
         <v>1.13623562307072</v>
       </c>
       <c r="J19" s="1" t="n">
@@ -968,33 +1095,39 @@
       <c r="L19" s="1" t="n">
         <v>0.015976716488683</v>
       </c>
+      <c r="M19" s="2" t="n">
+        <v>-45.75010977</v>
+      </c>
+      <c r="N19" s="2" t="n">
+        <v>34.49840511</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="7" t="n">
+      <c r="A20" s="9" t="n">
         <v>1248</v>
       </c>
-      <c r="B20" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C20" s="7" t="n">
+      <c r="B20" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" s="9" t="n">
         <v>1.42489123347551</v>
       </c>
-      <c r="D20" s="7" t="n">
+      <c r="D20" s="9" t="n">
         <v>-0.926126546326531</v>
       </c>
-      <c r="E20" s="7" t="n">
+      <c r="E20" s="9" t="n">
         <v>2.46938775510204</v>
       </c>
       <c r="F20" s="1" t="n">
         <v>-2.15118700541441</v>
       </c>
-      <c r="G20" s="8" t="n">
+      <c r="G20" s="10" t="n">
         <v>-1.45006596635573</v>
       </c>
-      <c r="H20" s="9" t="n">
+      <c r="H20" s="11" t="n">
         <v>-4.14069369928289</v>
       </c>
-      <c r="I20" s="0" t="n">
+      <c r="I20" s="2" t="n">
         <v>6.43799165907423</v>
       </c>
       <c r="J20" s="1" t="n">
@@ -1006,33 +1139,39 @@
       <c r="L20" s="1" t="n">
         <v>-0.0121312411860503</v>
       </c>
+      <c r="M20" s="2" t="n">
+        <v>-30.84430469</v>
+      </c>
+      <c r="N20" s="2" t="n">
+        <v>24.22687758</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="7" t="n">
+      <c r="A21" s="9" t="n">
         <v>1249</v>
       </c>
-      <c r="B21" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C21" s="7" t="n">
+      <c r="B21" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" s="9" t="n">
         <v>-0.0326591863244898</v>
       </c>
-      <c r="D21" s="7" t="n">
+      <c r="D21" s="9" t="n">
         <v>0.838810402073469</v>
       </c>
-      <c r="E21" s="7" t="n">
+      <c r="E21" s="9" t="n">
         <v>2.46938775510204</v>
       </c>
       <c r="F21" s="1" t="n">
         <v>-2.15118700541441</v>
       </c>
-      <c r="G21" s="8" t="n">
+      <c r="G21" s="10" t="n">
         <v>-0.0976355263188734</v>
       </c>
-      <c r="H21" s="9" t="n">
+      <c r="H21" s="11" t="n">
         <v>-0.801018531028612</v>
       </c>
-      <c r="I21" s="0" t="n">
+      <c r="I21" s="2" t="n">
         <v>3.52866087074005</v>
       </c>
       <c r="J21" s="1" t="n">
@@ -1044,33 +1183,39 @@
       <c r="L21" s="1" t="n">
         <v>-0.0239853084920485</v>
       </c>
+      <c r="M21" s="2" t="n">
+        <v>73.9286027</v>
+      </c>
+      <c r="N21" s="2" t="n">
+        <v>25.61815394</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="7" t="n">
+      <c r="A22" s="9" t="n">
         <v>1255</v>
       </c>
-      <c r="B22" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C22" s="7" t="n">
+      <c r="B22" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" s="9" t="n">
         <v>-0.15579362062449</v>
       </c>
-      <c r="D22" s="7" t="n">
+      <c r="D22" s="9" t="n">
         <v>-0.142690298326531</v>
       </c>
-      <c r="E22" s="7" t="n">
+      <c r="E22" s="9" t="n">
         <v>-0.530612244897959</v>
       </c>
       <c r="F22" s="1" t="n">
         <v>-7.96751353602666</v>
       </c>
-      <c r="G22" s="8" t="n">
+      <c r="G22" s="10" t="n">
         <v>0.297674163800844</v>
       </c>
-      <c r="H22" s="9" t="n">
+      <c r="H22" s="11" t="n">
         <v>-0.717868114176331</v>
       </c>
-      <c r="I22" s="0" t="n">
+      <c r="I22" s="2" t="n">
         <v>0.946905665847452</v>
       </c>
       <c r="J22" s="1" t="n">
@@ -1082,33 +1227,39 @@
       <c r="L22" s="1" t="n">
         <v>0.110636376731305</v>
       </c>
+      <c r="M22" s="2" t="n">
+        <v>-145.2972342</v>
+      </c>
+      <c r="N22" s="2" t="n">
+        <v>-118.3421866</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="7" t="n">
+      <c r="A23" s="9" t="n">
         <v>1276</v>
       </c>
-      <c r="B23" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C23" s="7" t="n">
+      <c r="B23" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" s="9" t="n">
         <v>-0.79059105102449</v>
       </c>
-      <c r="D23" s="7" t="n">
+      <c r="D23" s="9" t="n">
         <v>-0.0897233809265306</v>
       </c>
-      <c r="E23" s="7" t="n">
+      <c r="E23" s="9" t="n">
         <v>-2.53061224489796</v>
       </c>
       <c r="F23" s="1" t="n">
         <v>-1.84506455643482</v>
       </c>
-      <c r="G23" s="8" t="n">
+      <c r="G23" s="10" t="n">
         <v>-1.45006596635573</v>
       </c>
-      <c r="H23" s="9" t="n">
+      <c r="H23" s="11" t="n">
         <v>3.10963613249576</v>
       </c>
-      <c r="I23" s="0" t="n">
+      <c r="I23" s="2" t="n">
         <v>5.99409391427146</v>
       </c>
       <c r="J23" s="1" t="n">
@@ -1120,33 +1271,39 @@
       <c r="L23" s="1" t="n">
         <v>-0.0251964252032794</v>
       </c>
+      <c r="M23" s="2" t="n">
+        <v>-109.2791416</v>
+      </c>
+      <c r="N23" s="2" t="n">
+        <v>-155.4684578</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="7" t="n">
+      <c r="A24" s="9" t="n">
         <v>1282</v>
       </c>
-      <c r="B24" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C24" s="7" t="n">
+      <c r="B24" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" s="9" t="n">
         <v>1.35785769107551</v>
       </c>
-      <c r="D24" s="7" t="n">
+      <c r="D24" s="9" t="n">
         <v>-1.12300003282653</v>
       </c>
-      <c r="E24" s="7" t="n">
+      <c r="E24" s="9" t="n">
         <v>4.46938775510204</v>
       </c>
       <c r="F24" s="1" t="n">
         <v>11.7263640149938</v>
       </c>
-      <c r="G24" s="8" t="n">
+      <c r="G24" s="10" t="n">
         <v>0.512694745346267</v>
       </c>
-      <c r="H24" s="9" t="n">
+      <c r="H24" s="11" t="n">
         <v>1.73151305908192</v>
       </c>
-      <c r="I24" s="0" t="n">
+      <c r="I24" s="2" t="n">
         <v>9.33067380776096</v>
       </c>
       <c r="J24" s="1" t="n">
@@ -1158,33 +1315,39 @@
       <c r="L24" s="1" t="n">
         <v>0.122298805044951</v>
       </c>
+      <c r="M24" s="2" t="n">
+        <v>-108.8144026</v>
+      </c>
+      <c r="N24" s="2" t="n">
+        <v>-2.279960998</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="7" t="n">
+      <c r="A25" s="9" t="n">
         <v>1286</v>
       </c>
-      <c r="B25" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C25" s="7" t="n">
+      <c r="B25" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" s="9" t="n">
         <v>-1.27047124752449</v>
       </c>
-      <c r="D25" s="7" t="n">
+      <c r="D25" s="9" t="n">
         <v>-0.294977751126531</v>
       </c>
-      <c r="E25" s="7" t="n">
+      <c r="E25" s="9" t="n">
         <v>-0.530612244897959</v>
       </c>
       <c r="F25" s="1" t="n">
         <v>-7.96751353602666</v>
       </c>
-      <c r="G25" s="8" t="n">
+      <c r="G25" s="10" t="n">
         <v>-0.867485922970203</v>
       </c>
-      <c r="H25" s="9" t="n">
+      <c r="H25" s="11" t="n">
         <v>-0.0996199048692454</v>
       </c>
-      <c r="I25" s="0" t="n">
+      <c r="I25" s="2" t="n">
         <v>10.2303344288338</v>
       </c>
       <c r="J25" s="1" t="n">
@@ -1196,33 +1359,39 @@
       <c r="L25" s="1" t="n">
         <v>-0.160424401351178</v>
       </c>
+      <c r="M25" s="2" t="n">
+        <v>149.5823272</v>
+      </c>
+      <c r="N25" s="2" t="n">
+        <v>156.0650629</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="7" t="n">
+      <c r="A26" s="9" t="n">
         <v>1294</v>
       </c>
-      <c r="B26" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C26" s="7" t="n">
+      <c r="B26" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" s="9" t="n">
         <v>-1.11464006042449</v>
       </c>
-      <c r="D26" s="7" t="n">
+      <c r="D26" s="9" t="n">
         <v>-0.243807628126531</v>
       </c>
-      <c r="E26" s="7" t="n">
+      <c r="E26" s="9" t="n">
         <v>-2.53061224489796</v>
       </c>
       <c r="F26" s="1" t="n">
         <v>-1.84506455643482</v>
       </c>
-      <c r="G26" s="8" t="n">
+      <c r="G26" s="10" t="n">
         <v>-1.15877594466297</v>
       </c>
-      <c r="H26" s="9" t="n">
+      <c r="H26" s="11" t="n">
         <v>2.37249403678347</v>
       </c>
-      <c r="I26" s="0" t="n">
+      <c r="I26" s="2" t="n">
         <v>5.45664501960302</v>
       </c>
       <c r="J26" s="1" t="n">
@@ -1234,33 +1403,39 @@
       <c r="L26" s="1" t="n">
         <v>-0.0392601659721354</v>
       </c>
+      <c r="M26" s="2" t="n">
+        <v>-50.19339619</v>
+      </c>
+      <c r="N26" s="2" t="n">
+        <v>2.915975023</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="7" t="n">
+      <c r="A27" s="9" t="n">
         <v>1300</v>
       </c>
-      <c r="B27" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C27" s="7" t="n">
+      <c r="B27" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" s="9" t="n">
         <v>-1.70454864402449</v>
       </c>
-      <c r="D27" s="7" t="n">
+      <c r="D27" s="9" t="n">
         <v>1.68994138527347</v>
       </c>
-      <c r="E27" s="7" t="n">
+      <c r="E27" s="9" t="n">
         <v>-4.53061224489796</v>
       </c>
       <c r="F27" s="1" t="n">
         <v>12.277384423157</v>
       </c>
-      <c r="G27" s="8" t="n">
+      <c r="G27" s="10" t="n">
         <v>-1.15877594466297</v>
       </c>
-      <c r="H27" s="9" t="n">
+      <c r="H27" s="11" t="n">
         <v>4.69004592610941</v>
       </c>
-      <c r="I27" s="0" t="n">
+      <c r="I27" s="2" t="n">
         <v>-10.9081091376781</v>
       </c>
       <c r="J27" s="1" t="n">
@@ -1272,33 +1447,39 @@
       <c r="L27" s="1" t="n">
         <v>0.0153557014256002</v>
       </c>
+      <c r="M27" s="2" t="n">
+        <v>38.5681641</v>
+      </c>
+      <c r="N27" s="2" t="n">
+        <v>-19.76303941</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="7" t="n">
+      <c r="A28" s="9" t="n">
         <v>1301</v>
       </c>
-      <c r="B28" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C28" s="7" t="n">
+      <c r="B28" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" s="9" t="n">
         <v>-0.31526744542449</v>
       </c>
-      <c r="D28" s="7" t="n">
+      <c r="D28" s="9" t="n">
         <v>1.20618707457347</v>
       </c>
-      <c r="E28" s="7" t="n">
+      <c r="E28" s="9" t="n">
         <v>-2.53061224489796</v>
       </c>
       <c r="F28" s="1" t="n">
         <v>-1.84506455643482</v>
       </c>
-      <c r="G28" s="8" t="n">
+      <c r="G28" s="10" t="n">
         <v>0.00638414210808214</v>
       </c>
-      <c r="H28" s="9" t="n">
+      <c r="H28" s="11" t="n">
         <v>-0.576074346065724</v>
       </c>
-      <c r="I28" s="0" t="n">
+      <c r="I28" s="2" t="n">
         <v>3.30684944092923</v>
       </c>
       <c r="J28" s="1" t="n">
@@ -1310,33 +1491,39 @@
       <c r="L28" s="1" t="n">
         <v>-0.0137013847498413</v>
       </c>
+      <c r="M28" s="2" t="n">
+        <v>95.35746319</v>
+      </c>
+      <c r="N28" s="2" t="n">
+        <v>29.10481302</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="7" t="n">
+      <c r="A29" s="9" t="n">
         <v>1302</v>
       </c>
-      <c r="B29" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C29" s="7" t="n">
+      <c r="B29" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" s="9" t="n">
         <v>-0.54000060052449</v>
       </c>
-      <c r="D29" s="7" t="n">
+      <c r="D29" s="9" t="n">
         <v>-0.206425675826531</v>
       </c>
-      <c r="E29" s="7" t="n">
+      <c r="E29" s="9" t="n">
         <v>4.46938775510204</v>
       </c>
       <c r="F29" s="1" t="n">
         <v>11.7263640149938</v>
       </c>
-      <c r="G29" s="8" t="n">
+      <c r="G29" s="10" t="n">
         <v>0.935754663745602</v>
       </c>
-      <c r="H29" s="9" t="n">
+      <c r="H29" s="11" t="n">
         <v>3.62233187805038</v>
       </c>
-      <c r="I29" s="0" t="n">
+      <c r="I29" s="2" t="n">
         <v>14.2916284110651</v>
       </c>
       <c r="J29" s="1" t="n">
@@ -1348,33 +1535,39 @@
       <c r="L29" s="1" t="n">
         <v>0.0801222089233348</v>
       </c>
+      <c r="M29" s="2" t="n">
+        <v>12.14921052</v>
+      </c>
+      <c r="N29" s="2" t="n">
+        <v>16.26494817</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="7" t="n">
+      <c r="A30" s="9" t="n">
         <v>1303</v>
       </c>
-      <c r="B30" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C30" s="7" t="n">
+      <c r="B30" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" s="9" t="n">
         <v>-0.66170024372449</v>
       </c>
-      <c r="D30" s="7" t="n">
+      <c r="D30" s="9" t="n">
         <v>-0.281963048926531</v>
       </c>
-      <c r="E30" s="7" t="n">
+      <c r="E30" s="9" t="n">
         <v>0.469387755102041</v>
       </c>
       <c r="F30" s="1" t="n">
         <v>-8.02873802582258</v>
       </c>
-      <c r="G30" s="8" t="n">
+      <c r="G30" s="10" t="n">
         <v>2.71124502235726</v>
       </c>
-      <c r="H30" s="9" t="n">
+      <c r="H30" s="11" t="n">
         <v>0.712706656702014</v>
       </c>
-      <c r="I30" s="0" t="n">
+      <c r="I30" s="2" t="n">
         <v>-18.4492474130658</v>
       </c>
       <c r="J30" s="1" t="n">
@@ -1386,33 +1579,39 @@
       <c r="L30" s="1" t="n">
         <v>0.010295732073614</v>
       </c>
+      <c r="M30" s="2" t="n">
+        <v>23.31824948</v>
+      </c>
+      <c r="N30" s="2" t="n">
+        <v>32.66466083</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="7" t="n">
+      <c r="A31" s="9" t="n">
         <v>3116</v>
       </c>
-      <c r="B31" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C31" s="7" t="n">
+      <c r="B31" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" s="9" t="n">
         <v>0.66075843907551</v>
       </c>
-      <c r="D31" s="7" t="n">
+      <c r="D31" s="9" t="n">
         <v>-0.151150056026531</v>
       </c>
-      <c r="E31" s="7" t="n">
+      <c r="E31" s="9" t="n">
         <v>1.46938775510204</v>
       </c>
       <c r="F31" s="1" t="n">
         <v>-6.0899625156185</v>
       </c>
-      <c r="G31" s="8" t="n">
+      <c r="G31" s="10" t="n">
         <v>-0.867485922970203</v>
       </c>
-      <c r="H31" s="9" t="n">
+      <c r="H31" s="11" t="n">
         <v>-1.83459175080965</v>
       </c>
-      <c r="I31" s="0" t="n">
+      <c r="I31" s="2" t="n">
         <v>8.60158534897135</v>
       </c>
       <c r="J31" s="1" t="n">
@@ -1424,33 +1623,39 @@
       <c r="L31" s="1" t="n">
         <v>-0.0446002674580645</v>
       </c>
+      <c r="M31" s="2" t="n">
+        <v>17.79543331</v>
+      </c>
+      <c r="N31" s="2" t="n">
+        <v>-33.55389496</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="7" t="n">
+      <c r="A32" s="9" t="n">
         <v>3125</v>
       </c>
-      <c r="B32" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C32" s="7" t="n">
+      <c r="B32" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" s="9" t="n">
         <v>-1.46181216862449</v>
       </c>
-      <c r="D32" s="7" t="n">
+      <c r="D32" s="9" t="n">
         <v>2.68934628417347</v>
       </c>
-      <c r="E32" s="7" t="n">
+      <c r="E32" s="9" t="n">
         <v>4.46938775510204</v>
       </c>
       <c r="F32" s="1" t="n">
         <v>11.7263640149938</v>
       </c>
-      <c r="G32" s="8" t="n">
+      <c r="G32" s="10" t="n">
         <v>-0.0976355263188734</v>
       </c>
-      <c r="H32" s="9" t="n">
+      <c r="H32" s="11" t="n">
         <v>-0.996289583666358</v>
       </c>
-      <c r="I32" s="0" t="n">
+      <c r="I32" s="2" t="n">
         <v>2.17371887284548</v>
       </c>
       <c r="J32" s="1" t="n">
@@ -1462,33 +1667,39 @@
       <c r="L32" s="1" t="n">
         <v>0.0455125233218927</v>
       </c>
+      <c r="M32" s="2" t="n">
+        <v>76.15606496</v>
+      </c>
+      <c r="N32" s="2" t="n">
+        <v>70.02027932</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="7" t="n">
+      <c r="A33" s="9" t="n">
         <v>3140</v>
       </c>
-      <c r="B33" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C33" s="7" t="n">
+      <c r="B33" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" s="9" t="n">
         <v>-0.49736100912449</v>
       </c>
-      <c r="D33" s="7" t="n">
+      <c r="D33" s="9" t="n">
         <v>0.837475212773469</v>
       </c>
-      <c r="E33" s="7" t="n">
+      <c r="E33" s="9" t="n">
         <v>-1.53061224489796</v>
       </c>
       <c r="F33" s="1" t="n">
         <v>-5.90628904623074</v>
       </c>
-      <c r="G33" s="8" t="n">
+      <c r="G33" s="10" t="n">
         <v>0.168211932066856</v>
       </c>
-      <c r="H33" s="9" t="n">
+      <c r="H33" s="11" t="n">
         <v>-0.817385800833316</v>
       </c>
-      <c r="I33" s="0" t="n">
+      <c r="I33" s="2" t="n">
         <v>2.32512030344431</v>
       </c>
       <c r="J33" s="1" t="n">
@@ -1500,33 +1711,39 @@
       <c r="L33" s="1" t="n">
         <v>0.0447398892272249</v>
       </c>
+      <c r="M33" s="2" t="n">
+        <v>-75.67506145</v>
+      </c>
+      <c r="N33" s="2" t="n">
+        <v>-96.14164898</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="7" t="n">
+      <c r="A34" s="9" t="n">
         <v>3143</v>
       </c>
-      <c r="B34" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C34" s="7" t="n">
+      <c r="B34" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" s="9" t="n">
         <v>-0.45150598642449</v>
       </c>
-      <c r="D34" s="7" t="n">
+      <c r="D34" s="9" t="n">
         <v>-0.748348577826531</v>
       </c>
-      <c r="E34" s="7" t="n">
+      <c r="E34" s="9" t="n">
         <v>0.469387755102041</v>
       </c>
       <c r="F34" s="1" t="n">
         <v>-8.02873802582258</v>
       </c>
-      <c r="G34" s="8" t="n">
+      <c r="G34" s="10" t="n">
         <v>5.50633783161039</v>
       </c>
-      <c r="H34" s="9" t="n">
+      <c r="H34" s="11" t="n">
         <v>2.0246889957392</v>
       </c>
-      <c r="I34" s="0" t="n">
+      <c r="I34" s="2" t="n">
         <v>-40.8903153364197</v>
       </c>
       <c r="J34" s="1" t="n">
@@ -1538,33 +1755,39 @@
       <c r="L34" s="1" t="n">
         <v>0.0345014091408299</v>
       </c>
+      <c r="M34" s="2" t="n">
+        <v>204.975113</v>
+      </c>
+      <c r="N34" s="2" t="n">
+        <v>33.57374008</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="7" t="n">
+      <c r="A35" s="9" t="n">
         <v>3166</v>
       </c>
-      <c r="B35" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C35" s="7" t="n">
+      <c r="B35" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" s="9" t="n">
         <v>0.75352617697551</v>
       </c>
-      <c r="D35" s="7" t="n">
+      <c r="D35" s="9" t="n">
         <v>-0.153642665126531</v>
       </c>
-      <c r="E35" s="7" t="n">
+      <c r="E35" s="9" t="n">
         <v>-3.53061224489796</v>
       </c>
       <c r="F35" s="1" t="n">
         <v>4.21615993336109</v>
       </c>
-      <c r="G35" s="8" t="n">
+      <c r="G35" s="10" t="n">
         <v>-0.548445672997825</v>
       </c>
-      <c r="H35" s="9" t="n">
+      <c r="H35" s="11" t="n">
         <v>1.37643045087358</v>
       </c>
-      <c r="I35" s="0" t="n">
+      <c r="I35" s="2" t="n">
         <v>1.00629392313741</v>
       </c>
       <c r="J35" s="1" t="n">
@@ -1576,33 +1799,39 @@
       <c r="L35" s="1" t="n">
         <v>-0.00931212929498384</v>
       </c>
+      <c r="M35" s="2" t="n">
+        <v>-61.61671075</v>
+      </c>
+      <c r="N35" s="2" t="n">
+        <v>-76.08176781</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="7" t="n">
+      <c r="A36" s="9" t="n">
         <v>3167</v>
       </c>
-      <c r="B36" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C36" s="7" t="n">
+      <c r="B36" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C36" s="9" t="n">
         <v>0.78455111337551</v>
       </c>
-      <c r="D36" s="7" t="n">
+      <c r="D36" s="9" t="n">
         <v>0.757208319173469</v>
       </c>
-      <c r="E36" s="7" t="n">
+      <c r="E36" s="9" t="n">
         <v>-2.53061224489796</v>
       </c>
       <c r="F36" s="1" t="n">
         <v>-1.84506455643482</v>
       </c>
-      <c r="G36" s="8" t="n">
+      <c r="G36" s="10" t="n">
         <v>-1.15877594466297</v>
       </c>
-      <c r="H36" s="9" t="n">
+      <c r="H36" s="11" t="n">
         <v>2.37249403678347</v>
       </c>
-      <c r="I36" s="0" t="n">
+      <c r="I36" s="2" t="n">
         <v>5.45664501960302</v>
       </c>
       <c r="J36" s="1" t="n">
@@ -1614,33 +1843,39 @@
       <c r="L36" s="1" t="n">
         <v>-0.0160079816614155</v>
       </c>
+      <c r="M36" s="2" t="n">
+        <v>-34.18760708</v>
+      </c>
+      <c r="N36" s="2" t="n">
+        <v>-18.86895289</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="7" t="n">
+      <c r="A37" s="9" t="n">
         <v>3170</v>
       </c>
-      <c r="B37" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C37" s="7" t="n">
+      <c r="B37" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C37" s="9" t="n">
         <v>1.56017667277551</v>
       </c>
-      <c r="D37" s="7" t="n">
+      <c r="D37" s="9" t="n">
         <v>-1.41844738822653</v>
       </c>
-      <c r="E37" s="7" t="n">
+      <c r="E37" s="9" t="n">
         <v>-4.53061224489796</v>
       </c>
       <c r="F37" s="1" t="n">
         <v>12.277384423157</v>
       </c>
-      <c r="G37" s="8" t="n">
+      <c r="G37" s="10" t="n">
         <v>-1.45006596635573</v>
       </c>
-      <c r="H37" s="9" t="n">
+      <c r="H37" s="11" t="n">
         <v>6.00976806520722</v>
       </c>
-      <c r="I37" s="0" t="n">
+      <c r="I37" s="2" t="n">
         <v>-14.4843887126298</v>
       </c>
       <c r="J37" s="1" t="n">
@@ -1652,33 +1887,39 @@
       <c r="L37" s="1" t="n">
         <v>0.0520609271949565</v>
       </c>
+      <c r="M37" s="2" t="n">
+        <v>57.3012246</v>
+      </c>
+      <c r="N37" s="2" t="n">
+        <v>117.6261274</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="7" t="n">
+      <c r="A38" s="9" t="n">
         <v>3173</v>
       </c>
-      <c r="B38" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C38" s="7" t="n">
+      <c r="B38" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C38" s="9" t="n">
         <v>0.37034984817551</v>
       </c>
-      <c r="D38" s="7" t="n">
+      <c r="D38" s="9" t="n">
         <v>-1.34042331412653</v>
       </c>
-      <c r="E38" s="7" t="n">
+      <c r="E38" s="9" t="n">
         <v>3.46938775510204</v>
       </c>
       <c r="F38" s="1" t="n">
         <v>3.78758850478969</v>
       </c>
-      <c r="G38" s="8" t="n">
+      <c r="G38" s="10" t="n">
         <v>-1.15877594466297</v>
       </c>
-      <c r="H38" s="9" t="n">
+      <c r="H38" s="11" t="n">
         <v>-4.58016163119435</v>
       </c>
-      <c r="I38" s="0" t="n">
+      <c r="I38" s="2" t="n">
         <v>-1.07033785237618</v>
       </c>
       <c r="J38" s="1" t="n">
@@ -1690,33 +1931,39 @@
       <c r="L38" s="1" t="n">
         <v>0.0126280375460518</v>
       </c>
+      <c r="M38" s="2" t="n">
+        <v>56.72194576</v>
+      </c>
+      <c r="N38" s="2" t="n">
+        <v>-3.721930433</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="7" t="n">
+      <c r="A39" s="9" t="n">
         <v>3175</v>
       </c>
-      <c r="B39" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C39" s="7" t="n">
+      <c r="B39" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" s="9" t="n">
         <v>-1.34197700092449</v>
       </c>
-      <c r="D39" s="7" t="n">
+      <c r="D39" s="9" t="n">
         <v>1.29806219857347</v>
       </c>
-      <c r="E39" s="7" t="n">
+      <c r="E39" s="9" t="n">
         <v>-4.53061224489796</v>
       </c>
       <c r="F39" s="1" t="n">
         <v>12.277384423157</v>
       </c>
-      <c r="G39" s="8" t="n">
+      <c r="G39" s="10" t="n">
         <v>-1.45006596635573</v>
       </c>
-      <c r="H39" s="9" t="n">
+      <c r="H39" s="11" t="n">
         <v>6.00976806520722</v>
       </c>
-      <c r="I39" s="0" t="n">
+      <c r="I39" s="2" t="n">
         <v>-14.4843887126298</v>
       </c>
       <c r="J39" s="1" t="n">
@@ -1728,33 +1975,39 @@
       <c r="L39" s="1" t="n">
         <v>-0.10376328511527</v>
       </c>
+      <c r="M39" s="2" t="n">
+        <v>-151.0126552</v>
+      </c>
+      <c r="N39" s="2" t="n">
+        <v>-98.87652546</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="7" t="n">
+      <c r="A40" s="9" t="n">
         <v>3176</v>
       </c>
-      <c r="B40" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C40" s="7" t="n">
+      <c r="B40" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C40" s="9" t="n">
         <v>0.14859288967551</v>
       </c>
-      <c r="D40" s="7" t="n">
+      <c r="D40" s="9" t="n">
         <v>0.532024230873469</v>
       </c>
-      <c r="E40" s="7" t="n">
+      <c r="E40" s="9" t="n">
         <v>-3.53061224489796</v>
       </c>
       <c r="F40" s="1" t="n">
         <v>4.21615993336109</v>
       </c>
-      <c r="G40" s="8" t="n">
+      <c r="G40" s="10" t="n">
         <v>0.48494451706665</v>
       </c>
-      <c r="H40" s="9" t="n">
+      <c r="H40" s="11" t="n">
         <v>-2.27206960792549</v>
       </c>
-      <c r="I40" s="0" t="n">
+      <c r="I40" s="2" t="n">
         <v>5.36323223801565</v>
       </c>
       <c r="J40" s="1" t="n">
@@ -1766,33 +2019,39 @@
       <c r="L40" s="1" t="n">
         <v>0.0153019412877187</v>
       </c>
+      <c r="M40" s="2" t="n">
+        <v>21.22550371</v>
+      </c>
+      <c r="N40" s="2" t="n">
+        <v>100.8870244</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="7" t="n">
+      <c r="A41" s="9" t="n">
         <v>3189</v>
       </c>
-      <c r="B41" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C41" s="7" t="n">
+      <c r="B41" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C41" s="9" t="n">
         <v>0.37419985047551</v>
       </c>
-      <c r="D41" s="7" t="n">
+      <c r="D41" s="9" t="n">
         <v>-0.729764628326531</v>
       </c>
-      <c r="E41" s="7" t="n">
+      <c r="E41" s="9" t="n">
         <v>-0.530612244897959</v>
       </c>
       <c r="F41" s="1" t="n">
         <v>-7.96751353602666</v>
       </c>
-      <c r="G41" s="8" t="n">
+      <c r="G41" s="10" t="n">
         <v>-0.0421350695841674</v>
       </c>
-      <c r="H41" s="9" t="n">
+      <c r="H41" s="11" t="n">
         <v>-0.537561174012856</v>
       </c>
-      <c r="I41" s="0" t="n">
+      <c r="I41" s="2" t="n">
         <v>3.65434033250937</v>
       </c>
       <c r="J41" s="1" t="n">
@@ -1804,33 +2063,39 @@
       <c r="L41" s="1" t="n">
         <v>-0.0379701443790574</v>
       </c>
+      <c r="M41" s="2" t="n">
+        <v>48.43874534</v>
+      </c>
+      <c r="N41" s="2" t="n">
+        <v>69.74426257</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="7" t="n">
+      <c r="A42" s="9" t="n">
         <v>3190</v>
       </c>
-      <c r="B42" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C42" s="7" t="n">
+      <c r="B42" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C42" s="9" t="n">
         <v>-0.90900341952449</v>
       </c>
-      <c r="D42" s="7" t="n">
+      <c r="D42" s="9" t="n">
         <v>0.0272330568734694</v>
       </c>
-      <c r="E42" s="7" t="n">
+      <c r="E42" s="9" t="n">
         <v>3.46938775510204</v>
       </c>
       <c r="F42" s="1" t="n">
         <v>3.78758850478969</v>
       </c>
-      <c r="G42" s="8" t="n">
+      <c r="G42" s="10" t="n">
         <v>-0.680215569704397</v>
       </c>
-      <c r="H42" s="9" t="n">
+      <c r="H42" s="11" t="n">
         <v>-2.91985012623604</v>
       </c>
-      <c r="I42" s="0" t="n">
+      <c r="I42" s="2" t="n">
         <v>0.74225192266475</v>
       </c>
       <c r="J42" s="1" t="n">
@@ -1842,33 +2107,39 @@
       <c r="L42" s="1" t="n">
         <v>-0.085771212040193</v>
       </c>
+      <c r="M42" s="2" t="n">
+        <v>-73.65331425</v>
+      </c>
+      <c r="N42" s="2" t="n">
+        <v>-61.66271393</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="7" t="n">
+      <c r="A43" s="9" t="n">
         <v>3199</v>
       </c>
-      <c r="B43" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C43" s="7" t="n">
+      <c r="B43" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C43" s="9" t="n">
         <v>1.12054712437551</v>
       </c>
-      <c r="D43" s="7" t="n">
+      <c r="D43" s="9" t="n">
         <v>-0.425200428126531</v>
       </c>
-      <c r="E43" s="7" t="n">
+      <c r="E43" s="9" t="n">
         <v>1.46938775510204</v>
       </c>
       <c r="F43" s="1" t="n">
         <v>-6.0899625156185</v>
       </c>
-      <c r="G43" s="8" t="n">
+      <c r="G43" s="10" t="n">
         <v>-0.576195901277442</v>
       </c>
-      <c r="H43" s="9" t="n">
+      <c r="H43" s="11" t="n">
         <v>-1.4065737597509</v>
       </c>
-      <c r="I43" s="0" t="n">
+      <c r="I43" s="2" t="n">
         <v>6.82764003568873</v>
       </c>
       <c r="J43" s="1" t="n">
@@ -1880,33 +2151,39 @@
       <c r="L43" s="1" t="n">
         <v>0.176820830480264</v>
       </c>
+      <c r="M43" s="2" t="n">
+        <v>-117.566926</v>
+      </c>
+      <c r="N43" s="2" t="n">
+        <v>-30.07948916</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="7" t="n">
+      <c r="A44" s="9" t="n">
         <v>3200</v>
       </c>
-      <c r="B44" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C44" s="7" t="n">
+      <c r="B44" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C44" s="9" t="n">
         <v>0.38471496747551</v>
       </c>
-      <c r="D44" s="7" t="n">
+      <c r="D44" s="9" t="n">
         <v>-0.227490922526531</v>
       </c>
-      <c r="E44" s="7" t="n">
+      <c r="E44" s="9" t="n">
         <v>-3.53061224489796</v>
       </c>
       <c r="F44" s="1" t="n">
         <v>4.21615993336109</v>
       </c>
-      <c r="G44" s="8" t="n">
+      <c r="G44" s="10" t="n">
         <v>-1.45006596635573</v>
       </c>
-      <c r="H44" s="9" t="n">
+      <c r="H44" s="11" t="n">
         <v>4.55970209885149</v>
       </c>
-      <c r="I44" s="0" t="n">
+      <c r="I44" s="2" t="n">
         <v>-2.79508143282346</v>
       </c>
       <c r="J44" s="1" t="n">
@@ -1918,33 +2195,39 @@
       <c r="L44" s="1" t="n">
         <v>-0.00778808809727527</v>
       </c>
+      <c r="M44" s="2" t="n">
+        <v>55.75258044</v>
+      </c>
+      <c r="N44" s="2" t="n">
+        <v>51.43355316</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="7" t="n">
+      <c r="A45" s="9" t="n">
         <v>3206</v>
       </c>
-      <c r="B45" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C45" s="7" t="n">
+      <c r="B45" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C45" s="9" t="n">
         <v>-1.61099413722449</v>
       </c>
-      <c r="D45" s="7" t="n">
+      <c r="D45" s="9" t="n">
         <v>1.79662560727347</v>
       </c>
-      <c r="E45" s="7" t="n">
+      <c r="E45" s="9" t="n">
         <v>-1.53061224489796</v>
       </c>
       <c r="F45" s="1" t="n">
         <v>-5.90628904623074</v>
       </c>
-      <c r="G45" s="8" t="n">
+      <c r="G45" s="10" t="n">
         <v>1.73335528885202</v>
       </c>
-      <c r="H45" s="9" t="n">
+      <c r="H45" s="11" t="n">
         <v>-3.21301338774939</v>
       </c>
-      <c r="I45" s="0" t="n">
+      <c r="I45" s="2" t="n">
         <v>-6.91906876051671</v>
       </c>
       <c r="J45" s="1" t="n">
@@ -1956,33 +2239,39 @@
       <c r="L45" s="1" t="n">
         <v>0.111752679010374</v>
       </c>
+      <c r="M45" s="2" t="n">
+        <v>64.3618699</v>
+      </c>
+      <c r="N45" s="2" t="n">
+        <v>89.84004344</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="7" t="n">
+      <c r="A46" s="9" t="n">
         <v>3212</v>
       </c>
-      <c r="B46" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C46" s="7" t="n">
+      <c r="B46" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C46" s="9" t="n">
         <v>0.89442878817551</v>
       </c>
-      <c r="D46" s="7" t="n">
+      <c r="D46" s="9" t="n">
         <v>-1.88243070862653</v>
       </c>
-      <c r="E46" s="7" t="n">
+      <c r="E46" s="9" t="n">
         <v>-3.53061224489796</v>
       </c>
       <c r="F46" s="1" t="n">
         <v>4.21615993336109</v>
       </c>
-      <c r="G46" s="8" t="n">
+      <c r="G46" s="10" t="n">
         <v>-1.45006596635573</v>
       </c>
-      <c r="H46" s="9" t="n">
+      <c r="H46" s="11" t="n">
         <v>4.55970209885149</v>
       </c>
-      <c r="I46" s="0" t="n">
+      <c r="I46" s="2" t="n">
         <v>-2.79508143282346</v>
       </c>
       <c r="J46" s="1" t="n">
@@ -1994,33 +2283,39 @@
       <c r="L46" s="1" t="n">
         <v>-0.0616761532844995</v>
       </c>
+      <c r="M46" s="2" t="n">
+        <v>-2.914349113</v>
+      </c>
+      <c r="N46" s="2" t="n">
+        <v>76.55798403</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="7" t="n">
+      <c r="A47" s="9" t="n">
         <v>3218</v>
       </c>
-      <c r="B47" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C47" s="7" t="n">
+      <c r="B47" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C47" s="9" t="n">
         <v>-1.64878619992449</v>
       </c>
-      <c r="D47" s="7" t="n">
+      <c r="D47" s="9" t="n">
         <v>-0.231135862026531</v>
       </c>
-      <c r="E47" s="7" t="n">
+      <c r="E47" s="9" t="n">
         <v>0.469387755102041</v>
       </c>
       <c r="F47" s="1" t="n">
         <v>-8.02873802582258</v>
       </c>
-      <c r="G47" s="8" t="n">
+      <c r="G47" s="10" t="n">
         <v>4.95150801685543</v>
       </c>
-      <c r="H47" s="9" t="n">
+      <c r="H47" s="11" t="n">
         <v>1.76425867452769</v>
       </c>
-      <c r="I47" s="0" t="n">
+      <c r="I47" s="2" t="n">
         <v>-36.4357321048364</v>
       </c>
       <c r="J47" s="1" t="n">
@@ -2032,33 +2327,39 @@
       <c r="L47" s="1" t="n">
         <v>-0.0385000704972084</v>
       </c>
+      <c r="M47" s="2" t="n">
+        <v>109.825395</v>
+      </c>
+      <c r="N47" s="2" t="n">
+        <v>116.3107912</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="7" t="n">
+      <c r="A48" s="9" t="n">
         <v>3220</v>
       </c>
-      <c r="B48" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C48" s="7" t="n">
+      <c r="B48" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C48" s="9" t="n">
         <v>-2.20844397832449</v>
       </c>
-      <c r="D48" s="7" t="n">
+      <c r="D48" s="9" t="n">
         <v>1.05550912267347</v>
       </c>
-      <c r="E48" s="7" t="n">
+      <c r="E48" s="9" t="n">
         <v>1.46938775510204</v>
       </c>
       <c r="F48" s="1" t="n">
         <v>-6.0899625156185</v>
       </c>
-      <c r="G48" s="8" t="n">
+      <c r="G48" s="10" t="n">
         <v>0.00638414210808214</v>
       </c>
-      <c r="H48" s="9" t="n">
+      <c r="H48" s="11" t="n">
         <v>-0.550537777633396</v>
       </c>
-      <c r="I48" s="0" t="n">
+      <c r="I48" s="2" t="n">
         <v>3.27974940912349</v>
       </c>
       <c r="J48" s="1" t="n">
@@ -2070,9 +2371,15 @@
       <c r="L48" s="1" t="n">
         <v>0.0655758764897148</v>
       </c>
+      <c r="M48" s="2" t="n">
+        <v>-173.0882923</v>
+      </c>
+      <c r="N48" s="2" t="n">
+        <v>-48.36409171</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H49" s="9"/>
+      <c r="H49" s="11"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
